--- a/excel/Percentage.xlsx
+++ b/excel/Percentage.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="@10" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="33">
-  <si>
-    <t>higher0Xfrq</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="30">
   <si>
     <t>percent</t>
   </si>
@@ -40,19 +37,13 @@
     <t>higher0zXnfrq</t>
   </si>
   <si>
-    <t>z_top5</t>
-  </si>
-  <si>
-    <t>z_top10</t>
-  </si>
-  <si>
     <t>cos_avg</t>
   </si>
   <si>
-    <t>sum_higher0</t>
+    <t>cos_max_1</t>
   </si>
   <si>
-    <t>sum_higher05</t>
+    <t>cos_sum_total(bl2)</t>
   </si>
   <si>
     <t>review_count</t>
@@ -166,7 +157,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="66">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -764,36 +785,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N22"/>
+  <dimension ref="A2:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -807,31 +825,22 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
       <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>13</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -840,130 +849,103 @@
         <v>0.2</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>0.2</v>
       </c>
-      <c r="E3">
-        <v>0.4</v>
-      </c>
       <c r="F3">
-        <v>0.3</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>0.1</v>
+        <v>5787</v>
       </c>
       <c r="I3">
-        <v>0.4</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
+        <v>156</v>
+      </c>
+      <c r="J3">
+        <v>16.0741316744427</v>
       </c>
       <c r="K3">
-        <v>5787</v>
-      </c>
-      <c r="L3">
-        <v>156</v>
-      </c>
-      <c r="M3">
-        <v>16.0741316744427</v>
-      </c>
-      <c r="N3">
         <v>3.3067366579177602</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>0.3</v>
       </c>
       <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="D4">
         <v>0.3</v>
       </c>
-      <c r="D4">
-        <v>0.1</v>
-      </c>
       <c r="E4">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
-      </c>
-      <c r="G4">
-        <v>0.3</v>
+        <v>0.4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
       </c>
       <c r="H4">
-        <v>0.3</v>
+        <v>5044</v>
       </c>
       <c r="I4">
-        <v>0.3</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
+        <v>56</v>
+      </c>
+      <c r="J4">
+        <v>10.8023394131642</v>
       </c>
       <c r="K4">
-        <v>5044</v>
-      </c>
-      <c r="L4">
-        <v>56</v>
-      </c>
-      <c r="M4">
-        <v>10.8023394131642</v>
-      </c>
-      <c r="N4">
         <v>3.6597763470010198</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0.3</v>
       </c>
       <c r="C5">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D5">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F5">
-        <v>0.8</v>
-      </c>
-      <c r="G5">
         <v>0.5</v>
       </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
       <c r="H5">
-        <v>0.5</v>
+        <v>3932</v>
       </c>
       <c r="I5">
-        <v>0.6</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="J5">
+        <v>17.136317395727399</v>
       </c>
       <c r="K5">
-        <v>3932</v>
-      </c>
-      <c r="L5">
-        <v>40</v>
-      </c>
-      <c r="M5">
-        <v>17.136317395727399</v>
-      </c>
-      <c r="N5">
         <v>3.1751321535279202</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -972,86 +954,68 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F6">
-        <v>0.4</v>
-      </c>
-      <c r="G6">
         <v>0.1</v>
       </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6">
-        <v>0.1</v>
+        <v>3822</v>
       </c>
       <c r="I6">
-        <v>0.3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
+        <v>355</v>
+      </c>
+      <c r="J6">
+        <v>13.497906855049701</v>
       </c>
       <c r="K6">
-        <v>3822</v>
-      </c>
-      <c r="L6">
-        <v>355</v>
-      </c>
-      <c r="M6">
-        <v>13.497906855049701</v>
-      </c>
-      <c r="N6">
         <v>3.60198720877113</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>0.2</v>
       </c>
       <c r="C7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D7">
         <v>0.1</v>
       </c>
       <c r="E7">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F7">
-        <v>0.4</v>
-      </c>
-      <c r="G7">
         <v>0.1</v>
       </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
       <c r="H7">
-        <v>0.2</v>
+        <v>3241</v>
       </c>
       <c r="I7">
-        <v>0.4</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
+        <v>109</v>
+      </c>
+      <c r="J7">
+        <v>14.6343721073743</v>
       </c>
       <c r="K7">
-        <v>3241</v>
-      </c>
-      <c r="L7">
-        <v>109</v>
-      </c>
-      <c r="M7">
-        <v>14.6343721073743</v>
-      </c>
-      <c r="N7">
         <v>3.99490740740741</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>0.8</v>
@@ -1068,34 +1032,25 @@
       <c r="F8">
         <v>0.8</v>
       </c>
-      <c r="G8">
-        <v>0.8</v>
+      <c r="G8" t="s">
+        <v>15</v>
       </c>
       <c r="H8">
-        <v>0.8</v>
+        <v>2998</v>
       </c>
       <c r="I8">
-        <v>0.8</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J8">
+        <v>20.3989326217478</v>
       </c>
       <c r="K8">
-        <v>2998</v>
-      </c>
-      <c r="L8">
-        <v>19</v>
-      </c>
-      <c r="M8">
-        <v>20.3989326217478</v>
-      </c>
-      <c r="N8">
         <v>3.48648648648649</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>0.1</v>
@@ -1104,174 +1059,138 @@
         <v>0.1</v>
       </c>
       <c r="D9">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E9">
         <v>0.3</v>
       </c>
       <c r="F9">
+        <v>0.1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>3071</v>
+      </c>
+      <c r="I9">
+        <v>178</v>
+      </c>
+      <c r="J9">
+        <v>15.5724519700423</v>
+      </c>
+      <c r="K9">
+        <v>3.5998559337295202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+      <c r="C10">
+        <v>0.3</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="E10">
         <v>0.2</v>
       </c>
-      <c r="G9">
-        <v>0.3</v>
-      </c>
-      <c r="H9">
-        <v>0.2</v>
-      </c>
-      <c r="I9">
-        <v>0.3</v>
-      </c>
-      <c r="J9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9">
-        <v>3071</v>
-      </c>
-      <c r="L9">
-        <v>178</v>
-      </c>
-      <c r="M9">
-        <v>15.5724519700423</v>
-      </c>
-      <c r="N9">
-        <v>3.5998559337295202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>0.1</v>
-      </c>
-      <c r="D10">
-        <v>0.3</v>
-      </c>
-      <c r="E10">
-        <v>0.3</v>
-      </c>
-      <c r="F10">
-        <v>0.3</v>
-      </c>
-      <c r="G10">
-        <v>0.1</v>
+      <c r="G10" t="s">
+        <v>17</v>
       </c>
       <c r="H10">
-        <v>0.1</v>
+        <v>3006</v>
       </c>
       <c r="I10">
-        <v>0.6</v>
-      </c>
-      <c r="J10" t="s">
-        <v>20</v>
+        <v>109</v>
+      </c>
+      <c r="J10">
+        <v>13.653359946773101</v>
       </c>
       <c r="K10">
-        <v>3006</v>
-      </c>
-      <c r="L10">
-        <v>109</v>
-      </c>
-      <c r="M10">
-        <v>13.653359946773101</v>
-      </c>
-      <c r="N10">
         <v>4.0263234863995301</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>0.1</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D11">
         <v>0.2</v>
       </c>
       <c r="E11">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="F11">
-        <v>0.1</v>
-      </c>
-      <c r="G11">
         <v>0.2</v>
       </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
       <c r="H11">
-        <v>0.2</v>
+        <v>2495</v>
       </c>
       <c r="I11">
-        <v>0.8</v>
-      </c>
-      <c r="J11" t="s">
-        <v>21</v>
+        <v>106</v>
+      </c>
+      <c r="J11">
+        <v>20.082965931863701</v>
       </c>
       <c r="K11">
-        <v>2495</v>
-      </c>
-      <c r="L11">
-        <v>106</v>
-      </c>
-      <c r="M11">
-        <v>20.082965931863701</v>
-      </c>
-      <c r="N11">
         <v>3.3077324973876698</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D12">
+        <v>0.2</v>
+      </c>
+      <c r="E12">
+        <v>0.4</v>
+      </c>
+      <c r="F12">
         <v>0.1</v>
       </c>
-      <c r="E12">
-        <v>0.6</v>
-      </c>
-      <c r="F12">
-        <v>0.4</v>
-      </c>
-      <c r="G12">
-        <v>0.2</v>
+      <c r="G12" t="s">
+        <v>19</v>
       </c>
       <c r="H12">
-        <v>0.2</v>
+        <v>2197</v>
       </c>
       <c r="I12">
-        <v>0.3</v>
-      </c>
-      <c r="J12" t="s">
-        <v>22</v>
+        <v>182</v>
+      </c>
+      <c r="J12">
+        <v>22.429221665908099</v>
       </c>
       <c r="K12">
-        <v>2197</v>
-      </c>
-      <c r="L12">
-        <v>182</v>
-      </c>
-      <c r="M12">
-        <v>22.429221665908099</v>
-      </c>
-      <c r="N12">
         <v>4.1443745935400003</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>0.1</v>
@@ -1283,303 +1202,240 @@
         <v>0.1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0.1</v>
+        <v>0.2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2344</v>
       </c>
       <c r="I13">
+        <v>257</v>
+      </c>
+      <c r="J13">
+        <v>15.438139931740601</v>
+      </c>
+      <c r="K13">
+        <v>3.9227948272534299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>0.6</v>
+      </c>
+      <c r="C14">
         <v>0.7</v>
-      </c>
-      <c r="J13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13">
-        <v>2344</v>
-      </c>
-      <c r="L13">
-        <v>257</v>
-      </c>
-      <c r="M13">
-        <v>15.438139931740601</v>
-      </c>
-      <c r="N13">
-        <v>3.9227948272534299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14">
-        <v>0.7</v>
-      </c>
-      <c r="C14">
-        <v>0.6</v>
       </c>
       <c r="D14">
         <v>0.7</v>
       </c>
       <c r="E14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0.6</v>
       </c>
-      <c r="G14">
-        <v>0.7</v>
+      <c r="G14" t="s">
+        <v>21</v>
       </c>
       <c r="H14">
-        <v>0.7</v>
+        <v>2147</v>
       </c>
       <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <v>13.205868653935701</v>
       </c>
       <c r="K14">
-        <v>2147</v>
-      </c>
-      <c r="L14">
-        <v>25</v>
-      </c>
-      <c r="M14">
-        <v>13.205868653935701</v>
-      </c>
-      <c r="N14">
         <v>3.26708074534162</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0.6</v>
       </c>
       <c r="C15">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D15">
+        <v>0.8</v>
+      </c>
+      <c r="E15">
+        <v>0.9</v>
+      </c>
+      <c r="F15">
         <v>0.5</v>
       </c>
-      <c r="E15">
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15">
+        <v>2250</v>
+      </c>
+      <c r="I15">
+        <v>23</v>
+      </c>
+      <c r="J15">
+        <v>7.66222222222222</v>
+      </c>
+      <c r="K15">
+        <v>3.7139830508474598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>0.2</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0.2</v>
+      </c>
+      <c r="E16">
+        <v>0.2</v>
+      </c>
+      <c r="F16">
+        <v>0.3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16">
+        <v>2517</v>
+      </c>
+      <c r="I16">
+        <v>161</v>
+      </c>
+      <c r="J16">
+        <v>10.347636074692099</v>
+      </c>
+      <c r="K16">
+        <v>3.5131004366812202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>0.1</v>
+      </c>
+      <c r="C17">
         <v>0.4</v>
-      </c>
-      <c r="F15">
-        <v>0.6</v>
-      </c>
-      <c r="G15">
-        <v>0.8</v>
-      </c>
-      <c r="H15">
-        <v>0.7</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15">
-        <v>2250</v>
-      </c>
-      <c r="L15">
-        <v>23</v>
-      </c>
-      <c r="M15">
-        <v>7.66222222222222</v>
-      </c>
-      <c r="N15">
-        <v>3.7139830508474598</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16">
-        <v>0.1</v>
-      </c>
-      <c r="C16">
-        <v>0.2</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0.4</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.2</v>
-      </c>
-      <c r="H16">
-        <v>0.2</v>
-      </c>
-      <c r="I16">
-        <v>0.2</v>
-      </c>
-      <c r="J16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16">
-        <v>2517</v>
-      </c>
-      <c r="L16">
-        <v>161</v>
-      </c>
-      <c r="M16">
-        <v>10.347636074692099</v>
-      </c>
-      <c r="N16">
-        <v>3.5131004366812202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17">
-        <v>0.3</v>
-      </c>
-      <c r="C17">
-        <v>0.1</v>
       </c>
       <c r="D17">
         <v>0.4</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F17">
-        <v>0.1</v>
-      </c>
-      <c r="G17">
-        <v>0.4</v>
+        <v>0.2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
       </c>
       <c r="H17">
-        <v>0.3</v>
+        <v>2037</v>
       </c>
       <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>27</v>
+        <v>66</v>
+      </c>
+      <c r="J17">
+        <v>12.712812960235601</v>
       </c>
       <c r="K17">
-        <v>2037</v>
-      </c>
-      <c r="L17">
-        <v>66</v>
-      </c>
-      <c r="M17">
-        <v>12.712812960235601</v>
-      </c>
-      <c r="N17">
         <v>3.6540880503144701</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C18">
         <v>0.7</v>
       </c>
       <c r="D18">
+        <v>0.8</v>
+      </c>
+      <c r="E18">
+        <v>0.9</v>
+      </c>
+      <c r="F18">
+        <v>0.6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <v>2210</v>
+      </c>
+      <c r="I18">
+        <v>31</v>
+      </c>
+      <c r="J18">
+        <v>11.773303167420799</v>
+      </c>
+      <c r="K18">
+        <v>3.3105756358768401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
         <v>0.7</v>
-      </c>
-      <c r="E18">
-        <v>0.7</v>
-      </c>
-      <c r="F18">
-        <v>0.7</v>
-      </c>
-      <c r="G18">
-        <v>0.8</v>
-      </c>
-      <c r="H18">
-        <v>0.8</v>
-      </c>
-      <c r="I18">
-        <v>0.9</v>
-      </c>
-      <c r="J18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18">
-        <v>2210</v>
-      </c>
-      <c r="L18">
-        <v>31</v>
-      </c>
-      <c r="M18">
-        <v>11.773303167420799</v>
-      </c>
-      <c r="N18">
-        <v>3.3105756358768401</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19">
-        <v>0.8</v>
       </c>
       <c r="C19">
         <v>0.7</v>
       </c>
       <c r="D19">
+        <v>0.8</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>0.7</v>
       </c>
-      <c r="E19">
-        <v>0.6</v>
-      </c>
-      <c r="F19">
-        <v>0.6</v>
-      </c>
-      <c r="G19">
-        <v>0.8</v>
+      <c r="G19" t="s">
+        <v>26</v>
       </c>
       <c r="H19">
-        <v>0.8</v>
+        <v>2090</v>
       </c>
       <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>12.803349282296701</v>
       </c>
       <c r="K19">
-        <v>2090</v>
-      </c>
-      <c r="L19">
-        <v>10</v>
-      </c>
-      <c r="M19">
-        <v>12.803349282296701</v>
-      </c>
-      <c r="N19">
         <v>5.0947519540596602</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>0.2</v>
@@ -1588,42 +1444,33 @@
         <v>0.2</v>
       </c>
       <c r="D20">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4</v>
-      </c>
-      <c r="G20">
-        <v>0.1</v>
+        <v>0.3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
       </c>
       <c r="H20">
-        <v>0.1</v>
+        <v>1780</v>
       </c>
       <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>30</v>
+        <v>200</v>
+      </c>
+      <c r="J20">
+        <v>11.698876404494399</v>
       </c>
       <c r="K20">
-        <v>1780</v>
-      </c>
-      <c r="L20">
-        <v>200</v>
-      </c>
-      <c r="M20">
-        <v>11.698876404494399</v>
-      </c>
-      <c r="N20">
         <v>3.6125059213642801</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>0.7</v>
@@ -1640,135 +1487,123 @@
       <c r="F21">
         <v>0.7</v>
       </c>
-      <c r="G21">
-        <v>0.7</v>
+      <c r="G21" t="s">
+        <v>28</v>
       </c>
       <c r="H21">
-        <v>0.7</v>
+        <v>1698</v>
       </c>
       <c r="I21">
-        <v>0.7</v>
-      </c>
-      <c r="J21" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="J21">
+        <v>15.592461719670199</v>
       </c>
       <c r="K21">
-        <v>1698</v>
-      </c>
-      <c r="L21">
-        <v>18</v>
-      </c>
-      <c r="M21">
-        <v>15.592461719670199</v>
-      </c>
-      <c r="N21">
         <v>3.1708683473389399</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22">
+        <v>0.3</v>
+      </c>
+      <c r="C22">
+        <v>0.1</v>
+      </c>
+      <c r="D22">
+        <v>0.3</v>
+      </c>
+      <c r="E22">
+        <v>0.9</v>
+      </c>
+      <c r="F22">
         <v>0.2</v>
       </c>
-      <c r="C22">
-        <v>0.3</v>
-      </c>
-      <c r="D22">
-        <v>0.1</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0.3</v>
+      <c r="G22" t="s">
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>0.2</v>
+        <v>1609</v>
       </c>
       <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>32</v>
+        <v>202</v>
+      </c>
+      <c r="J22">
+        <v>16.676196395276602</v>
       </c>
       <c r="K22">
-        <v>1609</v>
-      </c>
-      <c r="L22">
-        <v>202</v>
-      </c>
-      <c r="M22">
-        <v>16.676196395276602</v>
-      </c>
-      <c r="N22">
         <v>3.9309035687167801</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B10:I10">
-    <cfRule type="top10" dxfId="59" priority="10" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:I11">
-    <cfRule type="top10" dxfId="58" priority="11" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:I12">
-    <cfRule type="top10" dxfId="57" priority="12" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:I13">
-    <cfRule type="top10" dxfId="56" priority="13" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:I14">
-    <cfRule type="top10" dxfId="55" priority="14" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:I15">
-    <cfRule type="top10" dxfId="54" priority="15" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:I16">
-    <cfRule type="top10" dxfId="53" priority="16" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:I17">
-    <cfRule type="top10" dxfId="52" priority="17" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:I18">
-    <cfRule type="top10" dxfId="51" priority="18" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:I19">
-    <cfRule type="top10" dxfId="50" priority="19" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:I1">
-    <cfRule type="top10" dxfId="49" priority="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:I20">
-    <cfRule type="top10" dxfId="48" priority="20" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:I2">
-    <cfRule type="top10" dxfId="47" priority="2" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:I3">
-    <cfRule type="top10" dxfId="46" priority="3" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:I4">
-    <cfRule type="top10" dxfId="45" priority="4" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:I5">
-    <cfRule type="top10" dxfId="44" priority="5" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:I6">
-    <cfRule type="top10" dxfId="43" priority="6" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:I7">
-    <cfRule type="top10" dxfId="42" priority="7" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:I8">
-    <cfRule type="top10" dxfId="41" priority="8" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:I9">
-    <cfRule type="top10" dxfId="40" priority="9" rank="1"/>
+  <conditionalFormatting sqref="B10:F10">
+    <cfRule type="top10" dxfId="65" priority="10" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:F11">
+    <cfRule type="top10" dxfId="64" priority="11" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:F12">
+    <cfRule type="top10" dxfId="63" priority="12" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:F13">
+    <cfRule type="top10" dxfId="62" priority="13" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:F14">
+    <cfRule type="top10" dxfId="61" priority="14" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:F15">
+    <cfRule type="top10" dxfId="60" priority="15" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:F16">
+    <cfRule type="top10" dxfId="59" priority="16" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:F17">
+    <cfRule type="top10" dxfId="58" priority="17" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:F18">
+    <cfRule type="top10" dxfId="57" priority="18" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:F19">
+    <cfRule type="top10" dxfId="56" priority="19" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:F1">
+    <cfRule type="top10" dxfId="55" priority="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:F20">
+    <cfRule type="top10" dxfId="54" priority="20" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:F21">
+    <cfRule type="top10" dxfId="53" priority="21" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:F22">
+    <cfRule type="top10" dxfId="52" priority="22" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:F2">
+    <cfRule type="top10" dxfId="51" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F3">
+    <cfRule type="top10" dxfId="50" priority="3" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F4">
+    <cfRule type="top10" dxfId="49" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:F5">
+    <cfRule type="top10" dxfId="48" priority="5" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:F6">
+    <cfRule type="top10" dxfId="47" priority="6" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:F7">
+    <cfRule type="top10" dxfId="46" priority="7" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:F8">
+    <cfRule type="top10" dxfId="45" priority="8" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:F9">
+    <cfRule type="top10" dxfId="44" priority="9" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1776,35 +1611,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N22"/>
+  <dimension ref="A2:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1818,84 +1651,66 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
       <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>13</v>
       </c>
       <c r="B3">
         <v>0.45</v>
       </c>
       <c r="C3">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="D3">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="E3">
+        <v>0.4</v>
+      </c>
+      <c r="F3">
         <v>0.2</v>
       </c>
-      <c r="F3">
-        <v>0.35</v>
-      </c>
-      <c r="G3">
-        <v>0.15</v>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>0.1</v>
+        <v>5787</v>
       </c>
       <c r="I3">
-        <v>0.5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
+        <v>156</v>
+      </c>
+      <c r="J3">
+        <v>16.0741316744427</v>
       </c>
       <c r="K3">
-        <v>5787</v>
-      </c>
-      <c r="L3">
-        <v>156</v>
-      </c>
-      <c r="M3">
-        <v>16.0741316744427</v>
-      </c>
-      <c r="N3">
         <v>3.3067366579177602</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="D4">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E4">
         <v>0.75</v>
@@ -1903,40 +1718,31 @@
       <c r="F4">
         <v>0.75</v>
       </c>
-      <c r="G4">
-        <v>0.6</v>
+      <c r="G4" t="s">
+        <v>11</v>
       </c>
       <c r="H4">
-        <v>0.5</v>
+        <v>5044</v>
       </c>
       <c r="I4">
-        <v>0.75</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
+        <v>56</v>
+      </c>
+      <c r="J4">
+        <v>10.8023394131642</v>
       </c>
       <c r="K4">
-        <v>5044</v>
-      </c>
-      <c r="L4">
-        <v>56</v>
-      </c>
-      <c r="M4">
-        <v>10.8023394131642</v>
-      </c>
-      <c r="N4">
         <v>3.6597763470010198</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="D5">
         <v>0.75</v>
@@ -1945,124 +1751,97 @@
         <v>0.8</v>
       </c>
       <c r="F5">
-        <v>0.8</v>
-      </c>
-      <c r="G5">
         <v>0.75</v>
       </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
       <c r="H5">
-        <v>0.75</v>
+        <v>3932</v>
       </c>
       <c r="I5">
-        <v>0.8</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="J5">
+        <v>17.136317395727399</v>
       </c>
       <c r="K5">
-        <v>3932</v>
-      </c>
-      <c r="L5">
-        <v>40</v>
-      </c>
-      <c r="M5">
-        <v>17.136317395727399</v>
-      </c>
-      <c r="N5">
         <v>3.1751321535279202</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="C6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D6">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="E6">
         <v>0.3</v>
       </c>
       <c r="F6">
+        <v>0.1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>3822</v>
+      </c>
+      <c r="I6">
+        <v>355</v>
+      </c>
+      <c r="J6">
+        <v>13.497906855049701</v>
+      </c>
+      <c r="K6">
+        <v>3.60198720877113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+      <c r="C7">
+        <v>0.05</v>
+      </c>
+      <c r="D7">
         <v>0.25</v>
       </c>
-      <c r="G6">
-        <v>0.05</v>
-      </c>
-      <c r="H6">
-        <v>0.05</v>
-      </c>
-      <c r="I6">
+      <c r="E7">
         <v>0.35</v>
       </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6">
-        <v>3822</v>
-      </c>
-      <c r="L6">
-        <v>355</v>
-      </c>
-      <c r="M6">
-        <v>13.497906855049701</v>
-      </c>
-      <c r="N6">
-        <v>3.60198720877113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>0.4</v>
-      </c>
-      <c r="C7">
-        <v>0.3</v>
-      </c>
-      <c r="D7">
-        <v>0.05</v>
-      </c>
-      <c r="E7">
-        <v>0.5</v>
-      </c>
       <c r="F7">
-        <v>0.6</v>
-      </c>
-      <c r="G7">
-        <v>0.25</v>
+        <v>0.35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
       </c>
       <c r="H7">
-        <v>0.2</v>
+        <v>3241</v>
       </c>
       <c r="I7">
-        <v>0.35</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
+        <v>109</v>
+      </c>
+      <c r="J7">
+        <v>14.6343721073743</v>
       </c>
       <c r="K7">
-        <v>3241</v>
-      </c>
-      <c r="L7">
-        <v>109</v>
-      </c>
-      <c r="M7">
-        <v>14.6343721073743</v>
-      </c>
-      <c r="N7">
         <v>3.99490740740741</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>0.4</v>
@@ -2079,254 +1858,200 @@
       <c r="F8">
         <v>0.4</v>
       </c>
-      <c r="G8">
-        <v>0.4</v>
+      <c r="G8" t="s">
+        <v>15</v>
       </c>
       <c r="H8">
-        <v>0.4</v>
+        <v>2998</v>
       </c>
       <c r="I8">
-        <v>0.4</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J8">
+        <v>20.3989326217478</v>
       </c>
       <c r="K8">
-        <v>2998</v>
-      </c>
-      <c r="L8">
-        <v>19</v>
-      </c>
-      <c r="M8">
-        <v>20.3989326217478</v>
-      </c>
-      <c r="N8">
         <v>3.48648648648649</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>0.3</v>
       </c>
       <c r="C9">
+        <v>0.2</v>
+      </c>
+      <c r="D9">
         <v>0.3</v>
       </c>
-      <c r="D9">
-        <v>0.2</v>
-      </c>
       <c r="E9">
+        <v>0.35</v>
+      </c>
+      <c r="F9">
         <v>0.25</v>
       </c>
-      <c r="F9">
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>3071</v>
+      </c>
+      <c r="I9">
+        <v>178</v>
+      </c>
+      <c r="J9">
+        <v>15.5724519700423</v>
+      </c>
+      <c r="K9">
+        <v>3.5998559337295202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
         <v>0.35</v>
       </c>
-      <c r="G9">
-        <v>0.3</v>
-      </c>
-      <c r="H9">
-        <v>0.2</v>
-      </c>
-      <c r="I9">
+      <c r="C10">
         <v>0.45</v>
       </c>
-      <c r="J9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9">
-        <v>3071</v>
-      </c>
-      <c r="L9">
-        <v>178</v>
-      </c>
-      <c r="M9">
-        <v>15.5724519700423</v>
-      </c>
-      <c r="N9">
-        <v>3.5998559337295202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
+      <c r="D10">
+        <v>0.4</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
         <v>0.25</v>
       </c>
-      <c r="C10">
-        <v>0.35</v>
-      </c>
-      <c r="D10">
-        <v>0.45</v>
-      </c>
-      <c r="E10">
-        <v>0.35</v>
-      </c>
-      <c r="F10">
-        <v>0.3</v>
-      </c>
-      <c r="G10">
-        <v>0.4</v>
+      <c r="G10" t="s">
+        <v>17</v>
       </c>
       <c r="H10">
-        <v>0.2</v>
+        <v>3006</v>
       </c>
       <c r="I10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J10" t="s">
-        <v>20</v>
+        <v>109</v>
+      </c>
+      <c r="J10">
+        <v>13.653359946773101</v>
       </c>
       <c r="K10">
-        <v>3006</v>
-      </c>
-      <c r="L10">
-        <v>109</v>
-      </c>
-      <c r="M10">
-        <v>13.653359946773101</v>
-      </c>
-      <c r="N10">
         <v>4.0263234863995301</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>0.35</v>
       </c>
       <c r="C11">
+        <v>0.4</v>
+      </c>
+      <c r="D11">
+        <v>0.25</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11">
+        <v>2495</v>
+      </c>
+      <c r="I11">
+        <v>106</v>
+      </c>
+      <c r="J11">
+        <v>20.082965931863701</v>
+      </c>
+      <c r="K11">
+        <v>3.3077324973876698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>0.4</v>
+      </c>
+      <c r="C12">
         <v>0.35</v>
       </c>
-      <c r="D11">
-        <v>0.4</v>
-      </c>
-      <c r="E11">
-        <v>0.1</v>
-      </c>
-      <c r="F11">
-        <v>0.1</v>
-      </c>
-      <c r="G11">
-        <v>0.25</v>
-      </c>
-      <c r="H11">
-        <v>0.3</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11">
-        <v>2495</v>
-      </c>
-      <c r="L11">
-        <v>106</v>
-      </c>
-      <c r="M11">
-        <v>20.082965931863701</v>
-      </c>
-      <c r="N11">
-        <v>3.3077324973876698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12">
-        <v>0.35</v>
-      </c>
-      <c r="C12">
-        <v>0.4</v>
-      </c>
       <c r="D12">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="E12">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="F12">
         <v>0.5</v>
       </c>
-      <c r="G12">
-        <v>0.2</v>
+      <c r="G12" t="s">
+        <v>19</v>
       </c>
       <c r="H12">
-        <v>0.25</v>
+        <v>2197</v>
       </c>
       <c r="I12">
-        <v>0.45</v>
-      </c>
-      <c r="J12" t="s">
-        <v>22</v>
+        <v>182</v>
+      </c>
+      <c r="J12">
+        <v>22.429221665908099</v>
       </c>
       <c r="K12">
-        <v>2197</v>
-      </c>
-      <c r="L12">
-        <v>182</v>
-      </c>
-      <c r="M12">
-        <v>22.429221665908099</v>
-      </c>
-      <c r="N12">
         <v>4.1443745935400003</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>0.4</v>
       </c>
       <c r="C13">
+        <v>0.35</v>
+      </c>
+      <c r="D13">
+        <v>0.1</v>
+      </c>
+      <c r="E13">
+        <v>0.8</v>
+      </c>
+      <c r="F13">
         <v>0.4</v>
       </c>
-      <c r="D13">
-        <v>0.35</v>
-      </c>
-      <c r="E13">
-        <v>0.15</v>
-      </c>
-      <c r="F13">
-        <v>0.1</v>
-      </c>
-      <c r="G13">
-        <v>0.1</v>
+      <c r="G13" t="s">
+        <v>20</v>
       </c>
       <c r="H13">
-        <v>0.2</v>
+        <v>2344</v>
       </c>
       <c r="I13">
-        <v>0.95</v>
-      </c>
-      <c r="J13" t="s">
-        <v>23</v>
+        <v>257</v>
+      </c>
+      <c r="J13">
+        <v>15.438139931740601</v>
       </c>
       <c r="K13">
-        <v>2344</v>
-      </c>
-      <c r="L13">
-        <v>257</v>
-      </c>
-      <c r="M13">
-        <v>15.438139931740601</v>
-      </c>
-      <c r="N13">
         <v>3.9227948272534299</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>0.7</v>
@@ -2343,34 +2068,25 @@
       <c r="F14">
         <v>0.7</v>
       </c>
-      <c r="G14">
-        <v>0.7</v>
+      <c r="G14" t="s">
+        <v>21</v>
       </c>
       <c r="H14">
-        <v>0.7</v>
+        <v>2147</v>
       </c>
       <c r="I14">
-        <v>0.7</v>
-      </c>
-      <c r="J14" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <v>13.205868653935701</v>
       </c>
       <c r="K14">
-        <v>2147</v>
-      </c>
-      <c r="L14">
-        <v>25</v>
-      </c>
-      <c r="M14">
-        <v>13.205868653935701</v>
-      </c>
-      <c r="N14">
         <v>3.26708074534162</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0.8</v>
@@ -2387,122 +2103,95 @@
       <c r="F15">
         <v>0.8</v>
       </c>
-      <c r="G15">
-        <v>0.8</v>
+      <c r="G15" t="s">
+        <v>22</v>
       </c>
       <c r="H15">
-        <v>0.8</v>
+        <v>2250</v>
       </c>
       <c r="I15">
-        <v>0.8</v>
-      </c>
-      <c r="J15" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J15">
+        <v>7.66222222222222</v>
       </c>
       <c r="K15">
-        <v>2250</v>
-      </c>
-      <c r="L15">
+        <v>3.7139830508474598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>23</v>
-      </c>
-      <c r="M15">
-        <v>7.66222222222222</v>
-      </c>
-      <c r="N15">
-        <v>3.7139830508474598</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>26</v>
       </c>
       <c r="B16">
         <v>0.3</v>
       </c>
       <c r="C16">
+        <v>0.2</v>
+      </c>
+      <c r="D16">
+        <v>0.35</v>
+      </c>
+      <c r="E16">
         <v>0.3</v>
       </c>
-      <c r="D16">
-        <v>0.2</v>
-      </c>
-      <c r="E16">
-        <v>0.5</v>
-      </c>
       <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.35</v>
+        <v>0.4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
       </c>
       <c r="H16">
-        <v>0.35</v>
+        <v>2517</v>
       </c>
       <c r="I16">
-        <v>0.3</v>
-      </c>
-      <c r="J16" t="s">
-        <v>26</v>
+        <v>161</v>
+      </c>
+      <c r="J16">
+        <v>10.347636074692099</v>
       </c>
       <c r="K16">
-        <v>2517</v>
-      </c>
-      <c r="L16">
-        <v>161</v>
-      </c>
-      <c r="M16">
-        <v>10.347636074692099</v>
-      </c>
-      <c r="N16">
         <v>3.5131004366812202</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0.55000000000000004</v>
       </c>
       <c r="C17">
+        <v>0.7</v>
+      </c>
+      <c r="D17">
+        <v>0.8</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D17">
-        <v>0.7</v>
-      </c>
-      <c r="E17">
-        <v>0.45</v>
-      </c>
-      <c r="F17">
-        <v>0.45</v>
-      </c>
-      <c r="G17">
-        <v>0.8</v>
+      <c r="G17" t="s">
+        <v>24</v>
       </c>
       <c r="H17">
-        <v>0.8</v>
+        <v>2037</v>
       </c>
       <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>27</v>
+        <v>66</v>
+      </c>
+      <c r="J17">
+        <v>12.712812960235601</v>
       </c>
       <c r="K17">
-        <v>2037</v>
-      </c>
-      <c r="L17">
-        <v>66</v>
-      </c>
-      <c r="M17">
-        <v>12.712812960235601</v>
-      </c>
-      <c r="N17">
         <v>3.6540880503144701</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0.75</v>
@@ -2519,34 +2208,25 @@
       <c r="F18">
         <v>0.75</v>
       </c>
-      <c r="G18">
-        <v>0.75</v>
+      <c r="G18" t="s">
+        <v>25</v>
       </c>
       <c r="H18">
-        <v>0.75</v>
+        <v>2210</v>
       </c>
       <c r="I18">
-        <v>0.75</v>
-      </c>
-      <c r="J18" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="J18">
+        <v>11.773303167420799</v>
       </c>
       <c r="K18">
-        <v>2210</v>
-      </c>
-      <c r="L18">
-        <v>31</v>
-      </c>
-      <c r="M18">
-        <v>11.773303167420799</v>
-      </c>
-      <c r="N18">
         <v>3.3105756358768401</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0.7</v>
@@ -2563,78 +2243,60 @@
       <c r="F19">
         <v>0.7</v>
       </c>
-      <c r="G19">
-        <v>0.7</v>
+      <c r="G19" t="s">
+        <v>26</v>
       </c>
       <c r="H19">
-        <v>0.7</v>
+        <v>2090</v>
       </c>
       <c r="I19">
-        <v>0.7</v>
-      </c>
-      <c r="J19" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>12.803349282296701</v>
       </c>
       <c r="K19">
-        <v>2090</v>
-      </c>
-      <c r="L19">
-        <v>10</v>
-      </c>
-      <c r="M19">
-        <v>12.803349282296701</v>
-      </c>
-      <c r="N19">
         <v>5.0947519540596602</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C20">
+        <v>0.35</v>
+      </c>
+      <c r="D20">
         <v>0.25</v>
       </c>
-      <c r="D20">
-        <v>0.35</v>
-      </c>
       <c r="E20">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F20">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G20">
-        <v>0.25</v>
+        <v>0.4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
       </c>
       <c r="H20">
-        <v>0.35</v>
+        <v>1780</v>
       </c>
       <c r="I20">
-        <v>0.15</v>
-      </c>
-      <c r="J20" t="s">
-        <v>30</v>
+        <v>200</v>
+      </c>
+      <c r="J20">
+        <v>11.698876404494399</v>
       </c>
       <c r="K20">
-        <v>1780</v>
-      </c>
-      <c r="L20">
-        <v>200</v>
-      </c>
-      <c r="M20">
-        <v>11.698876404494399</v>
-      </c>
-      <c r="N20">
         <v>3.6125059213642801</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>0.35</v>
@@ -2651,135 +2313,123 @@
       <c r="F21">
         <v>0.35</v>
       </c>
-      <c r="G21">
-        <v>0.35</v>
+      <c r="G21" t="s">
+        <v>28</v>
       </c>
       <c r="H21">
-        <v>0.35</v>
+        <v>1698</v>
       </c>
       <c r="I21">
-        <v>0.35</v>
-      </c>
-      <c r="J21" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="J21">
+        <v>15.592461719670199</v>
       </c>
       <c r="K21">
-        <v>1698</v>
-      </c>
-      <c r="L21">
-        <v>18</v>
-      </c>
-      <c r="M21">
-        <v>15.592461719670199</v>
-      </c>
-      <c r="N21">
         <v>3.1708683473389399</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
         <v>0.5</v>
       </c>
       <c r="D22">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E22">
-        <v>0.05</v>
+        <v>0.95</v>
       </c>
       <c r="F22">
-        <v>0.2</v>
-      </c>
-      <c r="G22">
-        <v>0.55000000000000004</v>
+        <v>0.25</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>0.45</v>
+        <v>1609</v>
       </c>
       <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>32</v>
+        <v>202</v>
+      </c>
+      <c r="J22">
+        <v>16.676196395276602</v>
       </c>
       <c r="K22">
-        <v>1609</v>
-      </c>
-      <c r="L22">
-        <v>202</v>
-      </c>
-      <c r="M22">
-        <v>16.676196395276602</v>
-      </c>
-      <c r="N22">
         <v>3.9309035687167801</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B10:I10">
-    <cfRule type="top10" dxfId="39" priority="10" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:I11">
-    <cfRule type="top10" dxfId="38" priority="11" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:I12">
-    <cfRule type="top10" dxfId="37" priority="12" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:I13">
-    <cfRule type="top10" dxfId="36" priority="13" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:I14">
-    <cfRule type="top10" dxfId="35" priority="14" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:I15">
-    <cfRule type="top10" dxfId="34" priority="15" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:I16">
-    <cfRule type="top10" dxfId="33" priority="16" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:I17">
-    <cfRule type="top10" dxfId="32" priority="17" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:I18">
-    <cfRule type="top10" dxfId="31" priority="18" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:I19">
-    <cfRule type="top10" dxfId="30" priority="19" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:I1">
-    <cfRule type="top10" dxfId="29" priority="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:I20">
-    <cfRule type="top10" dxfId="28" priority="20" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:I2">
-    <cfRule type="top10" dxfId="27" priority="2" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:I3">
-    <cfRule type="top10" dxfId="26" priority="3" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:I4">
-    <cfRule type="top10" dxfId="25" priority="4" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:I5">
-    <cfRule type="top10" dxfId="24" priority="5" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:I6">
-    <cfRule type="top10" dxfId="23" priority="6" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:I7">
-    <cfRule type="top10" dxfId="22" priority="7" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:I8">
-    <cfRule type="top10" dxfId="21" priority="8" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:I9">
-    <cfRule type="top10" dxfId="20" priority="9" rank="1"/>
+  <conditionalFormatting sqref="B10:F10">
+    <cfRule type="top10" dxfId="43" priority="10" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:F11">
+    <cfRule type="top10" dxfId="42" priority="11" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:F12">
+    <cfRule type="top10" dxfId="41" priority="12" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:F13">
+    <cfRule type="top10" dxfId="40" priority="13" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:F14">
+    <cfRule type="top10" dxfId="39" priority="14" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:F15">
+    <cfRule type="top10" dxfId="38" priority="15" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:F16">
+    <cfRule type="top10" dxfId="37" priority="16" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:F17">
+    <cfRule type="top10" dxfId="36" priority="17" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:F18">
+    <cfRule type="top10" dxfId="35" priority="18" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:F19">
+    <cfRule type="top10" dxfId="34" priority="19" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:F1">
+    <cfRule type="top10" dxfId="33" priority="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:F20">
+    <cfRule type="top10" dxfId="32" priority="20" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:F21">
+    <cfRule type="top10" dxfId="31" priority="21" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:F22">
+    <cfRule type="top10" dxfId="30" priority="22" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:F2">
+    <cfRule type="top10" dxfId="29" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F3">
+    <cfRule type="top10" dxfId="28" priority="3" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F4">
+    <cfRule type="top10" dxfId="27" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:F5">
+    <cfRule type="top10" dxfId="26" priority="5" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:F6">
+    <cfRule type="top10" dxfId="25" priority="6" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:F7">
+    <cfRule type="top10" dxfId="24" priority="7" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:F8">
+    <cfRule type="top10" dxfId="23" priority="8" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:F9">
+    <cfRule type="top10" dxfId="22" priority="9" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2787,18 +2437,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N22"/>
+  <dimension ref="A2:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -2812,75 +2474,57 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
       <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>13</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D3">
-        <v>0.33333333333333298</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="E3">
-        <v>0.36666666666666697</v>
+        <v>0.43333333333333302</v>
       </c>
       <c r="F3">
-        <v>0.3</v>
-      </c>
-      <c r="G3">
-        <v>0.16666666666666699</v>
+        <v>0.43333333333333302</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>0.133333333333333</v>
+        <v>5787</v>
       </c>
       <c r="I3">
-        <v>0.53333333333333299</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
+        <v>156</v>
+      </c>
+      <c r="J3">
+        <v>16.0741316744427</v>
       </c>
       <c r="K3">
-        <v>5787</v>
-      </c>
-      <c r="L3">
-        <v>156</v>
-      </c>
-      <c r="M3">
-        <v>16.0741316744427</v>
-      </c>
-      <c r="N3">
         <v>3.3067366579177602</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>0.96666666666666701</v>
@@ -2897,34 +2541,25 @@
       <c r="F4">
         <v>0.96666666666666701</v>
       </c>
-      <c r="G4">
-        <v>0.96666666666666701</v>
+      <c r="G4" t="s">
+        <v>11</v>
       </c>
       <c r="H4">
-        <v>0.96666666666666701</v>
+        <v>5044</v>
       </c>
       <c r="I4">
-        <v>0.96666666666666701</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
+        <v>56</v>
+      </c>
+      <c r="J4">
+        <v>10.8023394131642</v>
       </c>
       <c r="K4">
-        <v>5044</v>
-      </c>
-      <c r="L4">
-        <v>56</v>
-      </c>
-      <c r="M4">
-        <v>10.8023394131642</v>
-      </c>
-      <c r="N4">
         <v>3.6597763470010198</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0.86666666666666703</v>
@@ -2941,122 +2576,95 @@
       <c r="F5">
         <v>0.86666666666666703</v>
       </c>
-      <c r="G5">
-        <v>0.86666666666666703</v>
+      <c r="G5" t="s">
+        <v>12</v>
       </c>
       <c r="H5">
-        <v>0.86666666666666703</v>
+        <v>3932</v>
       </c>
       <c r="I5">
-        <v>0.86666666666666703</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="J5">
+        <v>17.136317395727399</v>
       </c>
       <c r="K5">
-        <v>3932</v>
-      </c>
-      <c r="L5">
-        <v>40</v>
-      </c>
-      <c r="M5">
-        <v>17.136317395727399</v>
-      </c>
-      <c r="N5">
         <v>3.1751321535279202</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>0.33333333333333298</v>
       </c>
       <c r="C6">
-        <v>0.33333333333333298</v>
+        <v>0.36666666666666697</v>
       </c>
       <c r="D6">
-        <v>0.36666666666666697</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="E6">
-        <v>0.36666666666666697</v>
+        <v>0.3</v>
       </c>
       <c r="F6">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="G6">
-        <v>0.16666666666666699</v>
+        <v>0.2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
       </c>
       <c r="H6">
-        <v>0.133333333333333</v>
+        <v>3822</v>
       </c>
       <c r="I6">
-        <v>0.36666666666666697</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
+        <v>355</v>
+      </c>
+      <c r="J6">
+        <v>13.497906855049701</v>
       </c>
       <c r="K6">
-        <v>3822</v>
-      </c>
-      <c r="L6">
-        <v>355</v>
-      </c>
-      <c r="M6">
-        <v>13.497906855049701</v>
-      </c>
-      <c r="N6">
         <v>3.60198720877113</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.63333333333333297</v>
+        <v>0.6</v>
       </c>
       <c r="C7">
-        <v>0.6</v>
+        <v>0.46666666666666701</v>
       </c>
       <c r="D7">
         <v>0.46666666666666701</v>
       </c>
       <c r="E7">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="F7">
         <v>0.56666666666666698</v>
       </c>
-      <c r="F7">
-        <v>0.53333333333333299</v>
-      </c>
-      <c r="G7">
-        <v>0.46666666666666701</v>
+      <c r="G7" t="s">
+        <v>14</v>
       </c>
       <c r="H7">
-        <v>0.43333333333333302</v>
+        <v>3241</v>
       </c>
       <c r="I7">
-        <v>0.53333333333333299</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
+        <v>109</v>
+      </c>
+      <c r="J7">
+        <v>14.6343721073743</v>
       </c>
       <c r="K7">
-        <v>3241</v>
-      </c>
-      <c r="L7">
-        <v>109</v>
-      </c>
-      <c r="M7">
-        <v>14.6343721073743</v>
-      </c>
-      <c r="N7">
         <v>3.99490740740741</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>0.266666666666667</v>
@@ -3073,254 +2681,200 @@
       <c r="F8">
         <v>0.266666666666667</v>
       </c>
-      <c r="G8">
-        <v>0.266666666666667</v>
+      <c r="G8" t="s">
+        <v>15</v>
       </c>
       <c r="H8">
-        <v>0.266666666666667</v>
+        <v>2998</v>
       </c>
       <c r="I8">
-        <v>0.266666666666667</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J8">
+        <v>20.3989326217478</v>
       </c>
       <c r="K8">
-        <v>2998</v>
-      </c>
-      <c r="L8">
-        <v>19</v>
-      </c>
-      <c r="M8">
-        <v>20.3989326217478</v>
-      </c>
-      <c r="N8">
         <v>3.48648648648649</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>0.4</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D9">
-        <v>0.33333333333333298</v>
+        <v>0.3</v>
       </c>
       <c r="E9">
         <v>0.46666666666666701</v>
       </c>
       <c r="F9">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>3071</v>
+      </c>
+      <c r="I9">
+        <v>178</v>
+      </c>
+      <c r="J9">
+        <v>15.5724519700423</v>
+      </c>
+      <c r="K9">
+        <v>3.5998559337295202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>0.63333333333333297</v>
+      </c>
+      <c r="C10">
+        <v>0.6</v>
+      </c>
+      <c r="D10">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="E10">
+        <v>0.63333333333333297</v>
+      </c>
+      <c r="F10">
+        <v>0.56666666666666698</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10">
+        <v>3006</v>
+      </c>
+      <c r="I10">
+        <v>109</v>
+      </c>
+      <c r="J10">
+        <v>13.653359946773101</v>
+      </c>
+      <c r="K10">
+        <v>4.0263234863995301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="C11">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="F11">
+        <v>0.6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11">
+        <v>2495</v>
+      </c>
+      <c r="I11">
+        <v>106</v>
+      </c>
+      <c r="J11">
+        <v>20.082965931863701</v>
+      </c>
+      <c r="K11">
+        <v>3.3077324973876698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+      <c r="C12">
+        <v>0.56666666666666698</v>
+      </c>
+      <c r="D12">
         <v>0.43333333333333302</v>
       </c>
-      <c r="G9">
-        <v>0.3</v>
-      </c>
-      <c r="H9">
-        <v>0.266666666666667</v>
-      </c>
-      <c r="I9">
-        <v>0.5</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="E12">
+        <v>0.63333333333333297</v>
+      </c>
+      <c r="F12">
+        <v>0.56666666666666698</v>
+      </c>
+      <c r="G12" t="s">
         <v>19</v>
       </c>
-      <c r="K9">
-        <v>3071</v>
-      </c>
-      <c r="L9">
-        <v>178</v>
-      </c>
-      <c r="M9">
-        <v>15.5724519700423</v>
-      </c>
-      <c r="N9">
-        <v>3.5998559337295202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="H12">
+        <v>2197</v>
+      </c>
+      <c r="I12">
+        <v>182</v>
+      </c>
+      <c r="J12">
+        <v>22.429221665908099</v>
+      </c>
+      <c r="K12">
+        <v>4.1443745935400003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B10">
-        <v>0.56666666666666698</v>
-      </c>
-      <c r="C10">
-        <v>0.63333333333333297</v>
-      </c>
-      <c r="D10">
+      <c r="B13">
         <v>0.6</v>
       </c>
-      <c r="E10">
-        <v>0.5</v>
-      </c>
-      <c r="F10">
-        <v>0.43333333333333302</v>
-      </c>
-      <c r="G10">
+      <c r="C13">
         <v>0.53333333333333299</v>
       </c>
-      <c r="H10">
-        <v>0.5</v>
-      </c>
-      <c r="I10">
-        <v>0.6</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="D13">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="E13">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="F13">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="G13" t="s">
         <v>20</v>
       </c>
-      <c r="K10">
-        <v>3006</v>
-      </c>
-      <c r="L10">
-        <v>109</v>
-      </c>
-      <c r="M10">
-        <v>13.653359946773101</v>
-      </c>
-      <c r="N10">
-        <v>4.0263234863995301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="H13">
+        <v>2344</v>
+      </c>
+      <c r="I13">
+        <v>257</v>
+      </c>
+      <c r="J13">
+        <v>15.438139931740601</v>
+      </c>
+      <c r="K13">
+        <v>3.9227948272534299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>21</v>
-      </c>
-      <c r="B11">
-        <v>0.53333333333333299</v>
-      </c>
-      <c r="C11">
-        <v>0.5</v>
-      </c>
-      <c r="D11">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="E11">
-        <v>0.3</v>
-      </c>
-      <c r="F11">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="G11">
-        <v>0.5</v>
-      </c>
-      <c r="H11">
-        <v>0.63333333333333297</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11">
-        <v>2495</v>
-      </c>
-      <c r="L11">
-        <v>106</v>
-      </c>
-      <c r="M11">
-        <v>20.082965931863701</v>
-      </c>
-      <c r="N11">
-        <v>3.3077324973876698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12">
-        <v>0.46666666666666701</v>
-      </c>
-      <c r="C12">
-        <v>0.5</v>
-      </c>
-      <c r="D12">
-        <v>0.56666666666666698</v>
-      </c>
-      <c r="E12">
-        <v>0.53333333333333299</v>
-      </c>
-      <c r="F12">
-        <v>0.6</v>
-      </c>
-      <c r="G12">
-        <v>0.43333333333333302</v>
-      </c>
-      <c r="H12">
-        <v>0.43333333333333302</v>
-      </c>
-      <c r="I12">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="J12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12">
-        <v>2197</v>
-      </c>
-      <c r="L12">
-        <v>182</v>
-      </c>
-      <c r="M12">
-        <v>22.429221665908099</v>
-      </c>
-      <c r="N12">
-        <v>4.1443745935400003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="C13">
-        <v>0.6</v>
-      </c>
-      <c r="D13">
-        <v>0.53333333333333299</v>
-      </c>
-      <c r="E13">
-        <v>0.233333333333333</v>
-      </c>
-      <c r="F13">
-        <v>0.3</v>
-      </c>
-      <c r="G13">
-        <v>0.233333333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.3</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13">
-        <v>2344</v>
-      </c>
-      <c r="L13">
-        <v>257</v>
-      </c>
-      <c r="M13">
-        <v>15.438139931740601</v>
-      </c>
-      <c r="N13">
-        <v>3.9227948272534299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>24</v>
       </c>
       <c r="B14">
         <v>0.46666666666666701</v>
@@ -3337,34 +2891,25 @@
       <c r="F14">
         <v>0.46666666666666701</v>
       </c>
-      <c r="G14">
-        <v>0.46666666666666701</v>
+      <c r="G14" t="s">
+        <v>21</v>
       </c>
       <c r="H14">
-        <v>0.46666666666666701</v>
+        <v>2147</v>
       </c>
       <c r="I14">
-        <v>0.46666666666666701</v>
-      </c>
-      <c r="J14" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <v>13.205868653935701</v>
       </c>
       <c r="K14">
-        <v>2147</v>
-      </c>
-      <c r="L14">
-        <v>25</v>
-      </c>
-      <c r="M14">
-        <v>13.205868653935701</v>
-      </c>
-      <c r="N14">
         <v>3.26708074534162</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0.53333333333333299</v>
@@ -3381,78 +2926,60 @@
       <c r="F15">
         <v>0.53333333333333299</v>
       </c>
-      <c r="G15">
-        <v>0.53333333333333299</v>
+      <c r="G15" t="s">
+        <v>22</v>
       </c>
       <c r="H15">
-        <v>0.53333333333333299</v>
+        <v>2250</v>
       </c>
       <c r="I15">
-        <v>0.53333333333333299</v>
-      </c>
-      <c r="J15" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J15">
+        <v>7.66222222222222</v>
       </c>
       <c r="K15">
-        <v>2250</v>
-      </c>
-      <c r="L15">
+        <v>3.7139830508474598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="M15">
-        <v>7.66222222222222</v>
-      </c>
-      <c r="N15">
-        <v>3.7139830508474598</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.63333333333333297</v>
       </c>
       <c r="C16">
-        <v>0.63333333333333297</v>
+        <v>0.56666666666666698</v>
       </c>
       <c r="D16">
         <v>0.56666666666666698</v>
       </c>
       <c r="E16">
-        <v>0.66666666666666696</v>
+        <v>0.5</v>
       </c>
       <c r="F16">
-        <v>0.7</v>
-      </c>
-      <c r="G16">
-        <v>0.56666666666666698</v>
+        <v>0.6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
       </c>
       <c r="H16">
-        <v>0.56666666666666698</v>
+        <v>2517</v>
       </c>
       <c r="I16">
-        <v>0.5</v>
-      </c>
-      <c r="J16" t="s">
-        <v>26</v>
+        <v>161</v>
+      </c>
+      <c r="J16">
+        <v>10.347636074692099</v>
       </c>
       <c r="K16">
-        <v>2517</v>
-      </c>
-      <c r="L16">
-        <v>161</v>
-      </c>
-      <c r="M16">
-        <v>10.347636074692099</v>
-      </c>
-      <c r="N16">
         <v>3.5131004366812202</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0.96666666666666701</v>
@@ -3469,34 +2996,25 @@
       <c r="F17">
         <v>0.96666666666666701</v>
       </c>
-      <c r="G17">
-        <v>0.96666666666666701</v>
+      <c r="G17" t="s">
+        <v>24</v>
       </c>
       <c r="H17">
-        <v>0.96666666666666701</v>
+        <v>2037</v>
       </c>
       <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>27</v>
+        <v>66</v>
+      </c>
+      <c r="J17">
+        <v>12.712812960235601</v>
       </c>
       <c r="K17">
-        <v>2037</v>
-      </c>
-      <c r="L17">
-        <v>66</v>
-      </c>
-      <c r="M17">
-        <v>12.712812960235601</v>
-      </c>
-      <c r="N17">
         <v>3.6540880503144701</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0.5</v>
@@ -3513,34 +3031,25 @@
       <c r="F18">
         <v>0.5</v>
       </c>
-      <c r="G18">
-        <v>0.5</v>
+      <c r="G18" t="s">
+        <v>25</v>
       </c>
       <c r="H18">
-        <v>0.5</v>
+        <v>2210</v>
       </c>
       <c r="I18">
-        <v>0.5</v>
-      </c>
-      <c r="J18" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="J18">
+        <v>11.773303167420799</v>
       </c>
       <c r="K18">
-        <v>2210</v>
-      </c>
-      <c r="L18">
-        <v>31</v>
-      </c>
-      <c r="M18">
-        <v>11.773303167420799</v>
-      </c>
-      <c r="N18">
         <v>3.3105756358768401</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0.46666666666666701</v>
@@ -3557,78 +3066,60 @@
       <c r="F19">
         <v>0.46666666666666701</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19">
+        <v>2090</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>12.803349282296701</v>
+      </c>
+      <c r="K19">
+        <v>5.0947519540596602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
         <v>0.46666666666666701</v>
       </c>
-      <c r="H19">
+      <c r="C20">
+        <v>0.5</v>
+      </c>
+      <c r="D20">
         <v>0.46666666666666701</v>
       </c>
-      <c r="I19">
-        <v>0.46666666666666701</v>
-      </c>
-      <c r="J19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19">
-        <v>2090</v>
-      </c>
-      <c r="L19">
-        <v>10</v>
-      </c>
-      <c r="M19">
-        <v>12.803349282296701</v>
-      </c>
-      <c r="N19">
-        <v>5.0947519540596602</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20">
-        <v>0.43333333333333302</v>
-      </c>
-      <c r="C20">
-        <v>0.46666666666666701</v>
-      </c>
-      <c r="D20">
+      <c r="E20">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="F20">
         <v>0.5</v>
       </c>
-      <c r="E20">
-        <v>0.63333333333333297</v>
-      </c>
-      <c r="F20">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="G20">
-        <v>0.46666666666666701</v>
+      <c r="G20" t="s">
+        <v>27</v>
       </c>
       <c r="H20">
-        <v>0.4</v>
+        <v>1780</v>
       </c>
       <c r="I20">
-        <v>0.36666666666666697</v>
-      </c>
-      <c r="J20" t="s">
-        <v>30</v>
+        <v>200</v>
+      </c>
+      <c r="J20">
+        <v>11.698876404494399</v>
       </c>
       <c r="K20">
-        <v>1780</v>
-      </c>
-      <c r="L20">
-        <v>200</v>
-      </c>
-      <c r="M20">
-        <v>11.698876404494399</v>
-      </c>
-      <c r="N20">
         <v>3.6125059213642801</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>0.233333333333333</v>
@@ -3645,134 +3136,122 @@
       <c r="F21">
         <v>0.233333333333333</v>
       </c>
-      <c r="G21">
-        <v>0.233333333333333</v>
+      <c r="G21" t="s">
+        <v>28</v>
       </c>
       <c r="H21">
-        <v>0.233333333333333</v>
+        <v>1698</v>
       </c>
       <c r="I21">
-        <v>0.233333333333333</v>
-      </c>
-      <c r="J21" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="J21">
+        <v>15.592461719670199</v>
       </c>
       <c r="K21">
-        <v>1698</v>
-      </c>
-      <c r="L21">
-        <v>18</v>
-      </c>
-      <c r="M21">
-        <v>15.592461719670199</v>
-      </c>
-      <c r="N21">
         <v>3.1708683473389399</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C22">
+        <v>0.63333333333333297</v>
+      </c>
+      <c r="D22">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <v>0.56666666666666698</v>
       </c>
-      <c r="C22">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="D22">
-        <v>0.63333333333333297</v>
-      </c>
-      <c r="E22">
-        <v>0.4</v>
-      </c>
-      <c r="F22">
-        <v>0.4</v>
-      </c>
-      <c r="G22">
-        <v>0.66666666666666696</v>
+      <c r="G22" t="s">
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>0.56666666666666698</v>
+        <v>1609</v>
       </c>
       <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>32</v>
+        <v>202</v>
+      </c>
+      <c r="J22">
+        <v>16.676196395276602</v>
       </c>
       <c r="K22">
-        <v>1609</v>
-      </c>
-      <c r="L22">
-        <v>202</v>
-      </c>
-      <c r="M22">
-        <v>16.676196395276602</v>
-      </c>
-      <c r="N22">
         <v>3.9309035687167801</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B10:I10">
-    <cfRule type="top10" dxfId="19" priority="10" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:I11">
-    <cfRule type="top10" dxfId="18" priority="11" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:I12">
-    <cfRule type="top10" dxfId="17" priority="12" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:I13">
-    <cfRule type="top10" dxfId="16" priority="13" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:I14">
-    <cfRule type="top10" dxfId="15" priority="14" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:I15">
-    <cfRule type="top10" dxfId="14" priority="15" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:I16">
-    <cfRule type="top10" dxfId="13" priority="16" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:I17">
-    <cfRule type="top10" dxfId="12" priority="17" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:I18">
-    <cfRule type="top10" dxfId="11" priority="18" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:I19">
-    <cfRule type="top10" dxfId="10" priority="19" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:I1">
-    <cfRule type="top10" dxfId="9" priority="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:I20">
-    <cfRule type="top10" dxfId="8" priority="20" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:I2">
+  <conditionalFormatting sqref="B10:F10">
+    <cfRule type="top10" dxfId="21" priority="10" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:F11">
+    <cfRule type="top10" dxfId="20" priority="11" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:F12">
+    <cfRule type="top10" dxfId="19" priority="12" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:F13">
+    <cfRule type="top10" dxfId="18" priority="13" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:F14">
+    <cfRule type="top10" dxfId="17" priority="14" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:F15">
+    <cfRule type="top10" dxfId="16" priority="15" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:F16">
+    <cfRule type="top10" dxfId="15" priority="16" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:F17">
+    <cfRule type="top10" dxfId="14" priority="17" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:F18">
+    <cfRule type="top10" dxfId="13" priority="18" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:F19">
+    <cfRule type="top10" dxfId="12" priority="19" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:F1">
+    <cfRule type="top10" dxfId="11" priority="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:F20">
+    <cfRule type="top10" dxfId="10" priority="20" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:F21">
+    <cfRule type="top10" dxfId="9" priority="21" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:F22">
+    <cfRule type="top10" dxfId="8" priority="22" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:F2">
     <cfRule type="top10" dxfId="7" priority="2" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:I3">
+  <conditionalFormatting sqref="B3:F3">
     <cfRule type="top10" dxfId="6" priority="3" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:I4">
+  <conditionalFormatting sqref="B4:F4">
     <cfRule type="top10" dxfId="5" priority="4" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:I5">
+  <conditionalFormatting sqref="B5:F5">
     <cfRule type="top10" dxfId="4" priority="5" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:I6">
+  <conditionalFormatting sqref="B6:F6">
     <cfRule type="top10" dxfId="3" priority="6" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:I7">
+  <conditionalFormatting sqref="B7:F7">
     <cfRule type="top10" dxfId="2" priority="7" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:I8">
+  <conditionalFormatting sqref="B8:F8">
     <cfRule type="top10" dxfId="1" priority="8" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:I9">
+  <conditionalFormatting sqref="B9:F9">
     <cfRule type="top10" dxfId="0" priority="9" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
